--- a/data/trans_bre/P22_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P22_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,46</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,28</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,78</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,09%</t>
+          <t>-13,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>64,06%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-31,21%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 28,73</t>
+          <t>-12,82; 29,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 32,23</t>
+          <t>-18,85; 24,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 35,88</t>
+          <t>-18,2; 26,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 160,3</t>
+          <t>-37,26; 8,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 183,08</t>
+          <t>-34,0; 212,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,63; 258,02</t>
+          <t>-39,19; 115,7</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-37,48; 136,09</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-63,65; 27,63</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,02</t>
+          <t>-8,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,28</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,5%</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,46%</t>
+          <t>-18,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-21,91%</t>
+          <t>-11,78%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-1,48%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,04; 5,22</t>
+          <t>-37,22; 12,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 12,65</t>
+          <t>-32,12; 17,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 8,23</t>
+          <t>-27,93; 20,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,88; 15,86</t>
+          <t>-28,15; 25,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 46,15</t>
+          <t>-58,27; 36,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,76; 33,48</t>
+          <t>-55,21; 70,23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-57,8; 116,22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-56,72; 150,83</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,06</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>-4,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,12%</t>
+          <t>23,87%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>40,17%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 21,85</t>
+          <t>-19,25; 12,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 17,61</t>
+          <t>-10,73; 21,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,66; 8,62</t>
+          <t>-12,49; 19,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 91,96</t>
+          <t>-5,51; 26,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 76,87</t>
+          <t>-37,59; 37,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 28,32</t>
+          <t>-25,68; 106,98</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-27,21; 74,05</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-14,75; 143,41</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,3</t>
+          <t>14,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,64</t>
+          <t>24,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,21</t>
+          <t>17,72</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>56,94%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>73,02%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>44,54%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13,54%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 24,92</t>
+          <t>0,25; 28,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,5; 30,19</t>
+          <t>8,09; 37,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 27,61</t>
+          <t>3,01; 32,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 83,49</t>
+          <t>-8,39; 21,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,7; 110,28</t>
+          <t>0,07; 96,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 91,05</t>
+          <t>18,31; 152,86</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 103,59</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-16,37; 71,58</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>17,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,32</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,95</t>
+          <t>15,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>14,87</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>42,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>23,09%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34,75%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38,53%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 25,64</t>
+          <t>-7,68; 35,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 26,17</t>
+          <t>-14,3; 26,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 24,82</t>
+          <t>-4,87; 33,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 84,07</t>
+          <t>-6,24; 32,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 95,39</t>
+          <t>-16,44; 123,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 71,63</t>
+          <t>-30,61; 97,31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 97,66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-14,85; 115,97</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,93</t>
+          <t>11,12</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>15,5</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>62,94%</t>
+          <t>29,24</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35,57%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>95,45%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,5; 32,66</t>
+          <t>-9,8; 31,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 22,52</t>
+          <t>-18,21; 23,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 28,0</t>
+          <t>-4,59; 39,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,09; 156,66</t>
+          <t>6,51; 52,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 85,58</t>
+          <t>-21,97; 124,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 74,21</t>
+          <t>-37,37; 85,37</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-9,04; 135,32</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10,3; 273,9</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>20,45%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23,68%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23,58%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,46; 14,96</t>
+          <t>-2,1; 13,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 16,06</t>
+          <t>-0,72; 14,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 14,9</t>
+          <t>0,01; 16,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,23; 49,63</t>
+          <t>-0,83; 16,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,78; 54,77</t>
+          <t>-4,97; 43,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 45,2</t>
+          <t>-2,25; 46,52</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 51,78</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 56,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P22_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P22_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,44</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,24</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-13,82</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>38,79%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,86%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>12,06%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-31,21%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>15.1786105295074</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.375006568034179</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.712380899651521</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-10.23271831635294</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.6131143026505128</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1164961762942068</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2076522777095401</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2491323839723489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,82; 29,41</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,85; 24,16</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,2; 26,05</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-37,26; 8,1</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-34,0; 212,06</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-39,19; 115,7</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-37,48; 136,09</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-63,65; 27,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.667209628993626</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.98550894172287</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-16.98387491043414</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-33.78902307660866</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2563812301812269</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3753395201048399</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3568055172710832</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6126267378885483</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>36.08918916861264</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>26.56466771722572</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>28.04766596157583</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.27760687399804</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.679874939729957</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.234642211114845</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.629088013940005</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.4817547136736313</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-8,81</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,8</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-18,15%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-11,78%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-1,48%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-37,22; 12,1</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-32,12; 17,67</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-27,93; 20,65</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-28,15; 25,47</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-58,27; 36,9</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-55,21; 70,23</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-57,8; 116,22</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-56,72; 150,83</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-6.791714455977021</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.897292095628583</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.874199630576046</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.7087489322362583</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1419150876504404</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1595416075694104</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.0567259566985145</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.02122161394921112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,08</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>11,2</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-4,83%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>23,87%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>10,23%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>40,17%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-29.89938678907161</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-32.28808474211809</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-28.4994132806623</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-30.23792909225752</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5019784280258509</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5413485894100838</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.556418943473131</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5803750451978967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-19,25; 12,51</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,73; 21,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,49; 19,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,51; 26,2</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-37,59; 37,93</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-25,68; 106,98</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-27,21; 74,05</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-14,75; 143,41</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.33946948820982</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.66032759318039</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>19.64607002638732</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>24.28452103041145</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.5716419666460242</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.5574909139362179</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.081080828852355</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.463036309960438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>14,6</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>24,05</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>17,72</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,56</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>38,53%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>73,02%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>44,54%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>13,54%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.2698832965038034</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.392559932037743</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.646967298223302</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>10.55959033393794</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.006676139597831632</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1711630684146596</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.0715316530935463</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3641353759936287</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 28,87</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8,09; 37,99</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 32,18</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,39; 21,46</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 96,21</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>18,31; 152,86</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>6,01; 103,59</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-16,37; 71,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.34675789996627</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.82512664387731</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.68682299102139</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.819522068224258</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.3488922187166286</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.281811126139591</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2968258943254298</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1701471770094349</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.42471826257459</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.66002734312116</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>18.39942336044135</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>25.80288002418825</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.4654023940464986</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.006614869464316</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.6849695004547294</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.350179960940876</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>17,01</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,49</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>15,29</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>14,87</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>42,89%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>23,09%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>34,75%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>38,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,68; 35,06</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-14,3; 26,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 33,52</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; 32,82</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-16,44; 123,12</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-30,61; 97,31</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; 97,66</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-14,85; 115,97</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>14.49823877174363</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>22.611752827363</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>16.45593304564621</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.588428136527273</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3895006528817282</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.6685164100345146</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4114160745212988</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.111033108050042</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>11,12</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>15,5</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>29,24</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>30,08%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>6,84%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>35,57%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>95,45%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.01789524820715303</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>5.7997128479161</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.638520296791349</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-9.154964081086669</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.01435157421234332</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1296336271120886</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.03529389978397675</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1915852019852736</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-9,8; 31,84</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-18,21; 23,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 39,72</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>6,51; 52,05</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-21,97; 124,33</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-37,37; 85,37</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-9,04; 135,32</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>10,3; 273,9</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>29.33563927827937</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>37.13099527311608</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>31.31647072268135</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>20.01692430189111</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.018813786844458</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.453300930738629</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.041346797808233</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.6709064989451113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>5,84</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,33</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8,97</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>8,44</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>14,96%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>20,45%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>23,68%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>23,58%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>17.05092208400226</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>8.566707610761204</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>15.80983341041282</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>14.0196669032532</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.4405044298387596</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.2341395150204282</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.3548427812155313</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.3625721250113811</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 13,82</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 14,54</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 16,94</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 16,53</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 43,18</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 46,52</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 51,78</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 56,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.104825635315109</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.54544161856801</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-4.847685803396589</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-6.938570401653106</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.1854216641714116</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.3050267792353753</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.09370885040098663</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.1612588337935736</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>35.34792620000704</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>26.49877083781894</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>34.37555628032502</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>32.14500651329433</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1.244346664828093</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1.023123695763262</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.004313010018925</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>1.148307990462516</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>15.40759753365582</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>3.082172131795341</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>16.38426987965125</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>30.98473161669925</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.4726366394597555</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.07793454473216914</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.3736268863825683</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>1.050027894499036</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-4.915322317307081</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-18.37737609932886</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-5.230309522695687</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>8.485098469151737</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.1330689505946786</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.3800841739141911</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.1021957376063256</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>0.1694222304438183</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>36.36233576745755</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>24.30784397205898</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>41.32908820215703</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>52.75558437343307</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.66337706254166</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.8334823878814763</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>1.342442075694311</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>2.946556985108161</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>7.477737961936199</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>6.791031454092811</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>8.695465557381516</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>8.322080002145494</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.1969488058375994</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.1849647840583296</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.2289806628990509</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.2339903785792537</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.9453975820685017</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.456364094945</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.1286195488733034</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.9898883363470803</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.02308683189985756</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.03590249389003233</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.003790632711075764</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.02102489651964768</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>15.90023124659968</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>13.89059040548552</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>16.95466335935055</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>16.29293140375297</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.483465698090217</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.4338364756539724</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.5209386782875153</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.5624148018342684</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
